--- a/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T09:22:23+00:00</t>
+    <t>2024-10-23T07:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T07:34:13+00:00</t>
+    <t>2024-10-23T11:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T11:03:56+00:00</t>
+    <t>2024-10-24T12:38:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -164,27 +164,6 @@
   </si>
   <si>
     <t>bei am Jahresende verbleibenden Patient:innen</t>
-  </si>
-  <si>
-    <t>HDG24.01</t>
-  </si>
-  <si>
-    <t>HDG24.02</t>
-  </si>
-  <si>
-    <t>HDG24.03</t>
-  </si>
-  <si>
-    <t>MEL01.01</t>
-  </si>
-  <si>
-    <t>MEL01.02</t>
-  </si>
-  <si>
-    <t>MEL01.03</t>
-  </si>
-  <si>
-    <t>MEL01.04</t>
   </si>
   <si>
     <t>System URI</t>
@@ -455,7 +434,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -563,74 +542,18 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>50</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T12:38:05+00:00</t>
+    <t>2024-10-24T13:32:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:32:35+00:00</t>
+    <t>2024-10-24T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:59:53+00:00</t>
+    <t>2024-10-24T14:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T14:28:41+00:00</t>
+    <t>2024-10-24T17:45:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:45:49+00:00</t>
+    <t>2024-10-24T18:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
+++ b/r5-ELGA-MOPED-main/ValueSet-moped-LKFAbrechnungsGruppe-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:34:10+00:00</t>
+    <t>2024-10-24T19:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
